--- a/Documentation/Diagrams/gantt.xlsx
+++ b/Documentation/Diagrams/gantt.xlsx
@@ -110,7 +110,7 @@
     <t>5.1 Contract Signing</t>
   </si>
   <si>
-    <t>5.2 Deployment</t>
+    <t>5.2 Training and Deployment</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DA1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="DJ10" sqref="DJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,46 +1124,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="DR1:EK1"/>
+    <mergeCell ref="DR2:DV2"/>
+    <mergeCell ref="DW2:EA2"/>
+    <mergeCell ref="EB2:EF2"/>
+    <mergeCell ref="EG2:EK2"/>
+    <mergeCell ref="EL1:FE1"/>
+    <mergeCell ref="EL2:EP2"/>
+    <mergeCell ref="EQ2:EU2"/>
+    <mergeCell ref="EV2:EZ2"/>
+    <mergeCell ref="FA2:FE2"/>
+    <mergeCell ref="CD1:CW1"/>
+    <mergeCell ref="CD2:CH2"/>
+    <mergeCell ref="CI2:CM2"/>
+    <mergeCell ref="CN2:CR2"/>
+    <mergeCell ref="CS2:CW2"/>
+    <mergeCell ref="CX1:DQ1"/>
+    <mergeCell ref="CX2:DB2"/>
+    <mergeCell ref="DC2:DG2"/>
+    <mergeCell ref="DH2:DL2"/>
+    <mergeCell ref="DM2:DQ2"/>
+    <mergeCell ref="AP1:BI1"/>
+    <mergeCell ref="BJ1:CC1"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="V1:AO1"/>
-    <mergeCell ref="AP1:BI1"/>
-    <mergeCell ref="BJ1:CC1"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BY2:CC2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="CX1:DQ1"/>
-    <mergeCell ref="CX2:DB2"/>
-    <mergeCell ref="DC2:DG2"/>
-    <mergeCell ref="DH2:DL2"/>
-    <mergeCell ref="DM2:DQ2"/>
-    <mergeCell ref="CD1:CW1"/>
-    <mergeCell ref="CD2:CH2"/>
-    <mergeCell ref="CI2:CM2"/>
-    <mergeCell ref="CN2:CR2"/>
-    <mergeCell ref="CS2:CW2"/>
-    <mergeCell ref="EL1:FE1"/>
-    <mergeCell ref="EL2:EP2"/>
-    <mergeCell ref="EQ2:EU2"/>
-    <mergeCell ref="EV2:EZ2"/>
-    <mergeCell ref="FA2:FE2"/>
-    <mergeCell ref="DR1:EK1"/>
-    <mergeCell ref="DR2:DV2"/>
-    <mergeCell ref="DW2:EA2"/>
-    <mergeCell ref="EB2:EF2"/>
-    <mergeCell ref="EG2:EK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
